--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_191.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_191.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
-        </is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3101503759398496</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['B', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742)]</t>
+          <t>[['A', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(60.76, 64.36)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:46.016712', '0:01:08.261428')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:57.401473', '0:01:08.558662')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>isophonics_184</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_125</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.139751552795031</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B', 'B/7', 'B/6', 'B/5']]</t>
+          <t>[['F', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(52.12, 55.48)]</t>
+          <t>[['Eb', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.440395, 3.280385)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
+          <t>[('0:00:08.899614', '0:00:16.538979')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:51.024092', '0:00:56.097653')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1939393939393939</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_29</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1428571428571428</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.482392, 11.666439)]</t>
+          <t>[['Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.620158, 13.055986)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:05.780000', '0:01:14.480000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:33.920000', '0:00:36.840000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2795031055900621</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_49</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1928956834532374</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(62.48, 64.92)]</t>
+          <t>[['F:7', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.646772, 12.917702)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:03:31.260000', '0:03:39.140000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:44.740000', '0:00:47.140000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>jaah_25</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1182266009852217</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
+          <t>[['Bb', 'F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(63.24, 64.62), (61.6, 63.84)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj'], ['F:maj', 'F:maj', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(58.557, 62.834), (40.49, 47.86)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:50.130000', '0:00:55.780000'), ('0:00:33.200000', '0:00:40.710000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:14.400000', '0:01:26.060000'), ('0:01:16.840000', '0:01:32.280000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.24, 18.88)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(63.84, 65.24)]</t>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1339285714285714</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.24, 8.18), (8.72, 10.48)]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(79.98, 87.7), (0.78, 24.04)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:16.179070', '0:00:23.725555')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1228070175438596</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'Bb:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(57.401473, 60.907686)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(63.251, 70.247)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.620158, 13.055986)]</t>
+          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.78, 23.84)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:34.780000', '0:01:54.140000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:31', '0:00:43.660000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1929744525547445</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(41.7, 45.42)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(218.68, 226.54)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4689655172413794</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.413696, 12.303038)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(138.02, 143.32)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2107843137254902</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'F/5', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(5.121, 12.601)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(3.389127, 22.035759)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09018567639257294</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (11.7, 20.02)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(18.42, 24.34), (9.24, 16.26)]</t>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.08548951048951049</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(38.31, 41.1)]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#'], ['C:min', 'G:maj/B', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.0, 4.32), (16.24, 19.08)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(19.98, 27.18), (8.44, 17.54)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
